--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\OpenClassrooms\P4_optimisez_un_site_web_existant_gerin_ludovic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411CE1F5-7387-4631-847E-1E8B774204A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68442E4E-86AF-458D-8C72-F066B10D5798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Catégorie</t>
   </si>
@@ -51,34 +51,235 @@
     <t>Référence</t>
   </si>
   <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>La version mobile n'est pas optimisée correctement (certaines parties dépassent de l'écran, les images ne sont pas à la même dimension..)</t>
+  </si>
+  <si>
+    <t>Il y a des images à la place du texte à plusieurs endroits.</t>
+  </si>
+  <si>
+    <t>D'une part, les bots des moteurs de recherche privilégient l'approche "mobile first" pour indexer les pages d'un site web. D'autre part, les utilisateurs sont de plus en plus nombreux à visiter des sites internet via leur smartphone. Il faut donc améliorer la version mobile du site pour optimiser sa crawlabilité et diminuer le taux de rebond des utilisateurs mobiles et par conséquent, améliorer son SEO.</t>
+  </si>
+  <si>
+    <t>SEO et accéssibilité</t>
+  </si>
+  <si>
+    <t>Il y a énormément de liens dans le footer.</t>
+  </si>
+  <si>
+    <t>Ne pas spammer les liens et ajouter simplement des liens de qualité qui apportent de la valeur à notre site.</t>
+  </si>
+  <si>
+    <t>Ajouter trop de liens et surtout de mauvaise qualité dans le seul but d'être mieux référencé s'apparente à du "Black Hat", ce qui est interdit et risquerait de faire disparaite le site des résultats de recherche.</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs n'est pas assez élevé pour le texte et les icones.</t>
+  </si>
+  <si>
+    <t>Les utilisateurs doivent être en mesure de distinguer le contenu de tout ce qui l'entoure. Le contraste doit être suffisamment élevé entre l'arrière-plan et les informations qui s'affichent sur ce dernier, tels que le texte et les éléments visuels importants.</t>
+  </si>
+  <si>
+    <t>Redimensionner les images à la taille qui convient et les compresser afin de les alléger plutôt que d'utiliser le CSS pour les redimensionner.</t>
+  </si>
+  <si>
+    <t>Penser "mobile first" : faire un site responsive et optimisé pour mobiles.</t>
+  </si>
+  <si>
+    <t>Privilégier du texte à une image contenant ce texte quand celà est possible.</t>
+  </si>
+  <si>
+    <t>Modifier le menu de navigation de la page 2 pour qu'il soit identique à celui de la page d'accueil.</t>
+  </si>
+  <si>
+    <t>Ajouter un attribut "nofollow" à ces liens pour indiquer aux moteurs de recherche de ne pas les suivre.</t>
+  </si>
+  <si>
+    <t>Réoarganiser le site en version mobile, notament en redimensionnant certaines parties et en accordant son design (aligner les images).</t>
+  </si>
+  <si>
+    <t>Remplacer les images contenant le texte par du texte uniquement.</t>
+  </si>
+  <si>
+    <t>Cours OC</t>
+  </si>
+  <si>
+    <t>Cours OC, PageSpeed Insights</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de lien dans notre code pour analyser les données de Google Analytics</t>
+  </si>
+  <si>
+    <t>Il est préférable de recueillir les données de Google Analytics pour notre site afin de connaître le comportement des utilisateurs et analyser s'il y a des problèmes à corriger sur ce dernier.</t>
+  </si>
+  <si>
+    <t>Homogénéiser les menus de navigation sur les 2 pages</t>
+  </si>
+  <si>
+    <t>Créer un lien Google Analytics vers notre site et l'ajouter dans le code.</t>
+  </si>
+  <si>
+    <t>Consulter régulièrement Google Analytics pour améliorer le site et son SEO.</t>
+  </si>
+  <si>
+    <t>Bien choisir les couleurs d'arrière plan et des éléments du site (texte, icones) pour que le contraste soit assez élevé.</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs du site pour améliorer son contraste et ainsi, son accessibilité.</t>
+  </si>
+  <si>
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>SEO</t>
-  </si>
-  <si>
-    <t>Il y a des images à la place du texte à plusieurs endroits</t>
-  </si>
-  <si>
-    <t>Les images mettent plus de temps à charger que le texte et si la page manque de mots, le référencement sera moins bon</t>
-  </si>
-  <si>
-    <t>Il faut privilégier du texte à une image contenant ce texte quand celà est possible</t>
-  </si>
-  <si>
-    <t>Il faut remplacer les images contenant le texte par du texte uniquement</t>
-  </si>
-  <si>
-    <t>Les images du sites sont trop grandes par rapport à l'utilisation qui en est faite</t>
-  </si>
-  <si>
-    <t>Les images trop grandes sont plus lourdes donc plus longues à charger, ce qui augmente le temps de chargement de la page. Ceci est mauvais pour l'utilisateur (augmentation du taux de rebond) et pour la crawlabilité (le moteur de recherche utilise plus de ressources et indexe donc moins de pages de notre site)</t>
-  </si>
-  <si>
-    <t>Il faut redimensionner les images à la taille qui convient et les compresser afin de les alléger plutôt que d'utiliser le CSS pour les redimensionner</t>
-  </si>
-  <si>
-    <t>Il faut redimensionner les images du site qui sont trop volumineuses et les comprésser avant de les réintroduire sur le site</t>
+    <t>Accesibilité</t>
+  </si>
+  <si>
+    <t>SEO et Accessibilité</t>
+  </si>
+  <si>
+    <t>Les liens ne sont pas assez distincts comparés au texte.</t>
+  </si>
+  <si>
+    <t>Les informations importantes, comme par exemple des liens doivent être différenciables du reste du texte. Ils peuvent par exmple être d'une autre couleur mais ils doivent également être visibles par d'autres moyens (texte souligné pour les liens par exemple).</t>
+  </si>
+  <si>
+    <t>Faire ressortir les informations importantes comme les liens par la couleur, mais pas uniquement, également par d'autres moyens comme par exemple un texte souligné pour ces derniers.</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser de liens ou de textes cachés.</t>
+  </si>
+  <si>
+    <t>Supprimer ces mots clés cachés.</t>
+  </si>
+  <si>
+    <t>Ecrire des liens ou des textes sur une page en les cachant pour augmenter son référencement est une technique de "Black Hat", donc interdite, au risque de disparaite des résultats de recherche.</t>
+  </si>
+  <si>
+    <t>Les balises &lt;title&gt; des pages ne sont pas correctement utilisées.</t>
+  </si>
+  <si>
+    <t>Les titres des pages de notre site sont respectivement "." et "page2". Or, lors d'une recherche, la première chose qui apparait dans les résultats du moteur de recherche est le titre de notre site. Celui-ci ne saura donc pas de quel sujet traite le site (un utilisateur non plus) et ne pourra donc pas le référencer correctement, le faisant chuter dans le SEO.</t>
+  </si>
+  <si>
+    <t>Modifier les titres de nos pages pour qu'ils correspondent au site et aux recherches liées à ce dernier.</t>
+  </si>
+  <si>
+    <t>Le code n'est pas structuré avec les bonnes balises HTML5.</t>
+  </si>
+  <si>
+    <t>Il faut que le titre de notre site corresponde à une recherche, qu'il contienne des mots clés pour le référencement et, quand il s'agit d'une marque, qu'il contiennent le nom de celle-ci.</t>
+  </si>
+  <si>
+    <t>Il n'y a aucune description dans la balise "meta description" du site.</t>
+  </si>
+  <si>
+    <t>Tout comme le titre du site, le commentaire fait partie des choses que l'on voit en premier sur les résultats des moteurs de recherche. Il faut donc que l'utilisateur voit une description du site, qui lui donnera envie d'aller plus loin et et de le visiter.</t>
+  </si>
+  <si>
+    <t>Ajouter une description accrocheuse qui donnera envie à l'utilisateur d'aller plus loin tout en y incluant quelques mots clés pour augementer son référencement.</t>
+  </si>
+  <si>
+    <t>Ajouter une description à nos pages dans les balises "meta description".</t>
+  </si>
+  <si>
+    <t>Cours OC - Augmentez votre trafic grâce au référencement naturel (SEO)</t>
+  </si>
+  <si>
+    <t>Utiliser les balises qui correspondent à notre besoin au lieu d'utiliser uniquement des &lt;div&gt;.</t>
+  </si>
+  <si>
+    <t>Remplacer les balises &lt;div&gt; par les balises qui conviennent lorsque c'est nécessaire.</t>
+  </si>
+  <si>
+    <t>Des mots clé ont été ajoutés dans le header et le footer avec un fond de la meme couleur que celui-ci pour les cacher.</t>
+  </si>
+  <si>
+    <t>Des textes écrits trop petits ou utilisant une police difficile à lire représentent un obstacle pour les utilisateurs. Ceci peut ralentir la vitesse de lecture et augmenter les efforts nécessaires pour venir à bout de ceux-ci.</t>
+  </si>
+  <si>
+    <t>Les images mettent plus de temps à charger que le texte et si la page manque de mots, le référencement en sera impacté. De plus le texte doit être lisible par les lecteurs d'écran, or, s'il fait partie d'une image, il ne pourra pas être lu.</t>
+  </si>
+  <si>
+    <t>Ajouter de la couleur et souligner les liens pour les distinguer du reste.</t>
+  </si>
+  <si>
+    <t>Choisir une police et une taille adéquates pour que le texte soit facilement lisible.</t>
+  </si>
+  <si>
+    <t>Changer la police de certains textes et/ou augmenter la taille de celle-ci.</t>
+  </si>
+  <si>
+    <t>Certains textes sont écrits trop petits ou avec une police difficile à lire.</t>
+  </si>
+  <si>
+    <t>Les menus de navigation ne sont pas exactement les mêmes sur les 2 pages notament en version mobile.</t>
+  </si>
+  <si>
+    <t>Certaines parties du site doivent être identiques d'une pages à l'autre, que ce soit visuellement ou sur le fonctionnement pour que les utilisateurs ne se perdent pas et n'aient pas à réapprendre le fonctionnement du site à chaque nouvelle page visitée, sous peine d'augmenter le taux de rebond.</t>
+  </si>
+  <si>
+    <t>Le site est développé, en grande majorité, uniquement avec des balises &lt;div&gt;.  En matière de SEO, plus le site sera développé avec un code "propre", c'est-à-dire qui utilise les bonnes balises HTML5 comme &lt;header&gt;, &lt;section&gt;, &lt;footer&gt;, etc, plus le moteur de recherche fera confiance au site, pourra interpreter le contenu de ce dernier et le référencera bien. Pour ce qui est de l'accessibilité, il est important d'avoir un site bien structuré afin de pouvoir y naviguer convenablement.</t>
+  </si>
+  <si>
+    <t>Cours OC, https://www.pluralsight.com/guides/semantic-html</t>
+  </si>
+  <si>
+    <t>Les utilisateurs de lecteur d'écran ne peuvent pas se repérer facilement sur le site et se déplacer aisément à l'interieur.</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de repères ARIA pour souligner les différents rôles de chaque partie.</t>
+  </si>
+  <si>
+    <t>Intégrer les repères ARIA dans le code pour les utilisateurs de lecteur d'écran.</t>
+  </si>
+  <si>
+    <t>Ajouter ces repères dans le code.</t>
+  </si>
+  <si>
+    <t>Cours OC, mdn web docs, Wave</t>
+  </si>
+  <si>
+    <t>Cours OC, Colour Contrast Analyser, mdn web docs, Wave</t>
+  </si>
+  <si>
+    <t>Cours OC, Wave</t>
+  </si>
+  <si>
+    <t>Cours OC, mdn web docs, https://www.washington.edu/accessibility/web/landmarks/, Wave</t>
+  </si>
+  <si>
+    <t>Il y a des &lt;h3&gt; avant des &lt;h2&gt;.</t>
+  </si>
+  <si>
+    <t>Les titres ne suivent pas la structure hiérarchique (un seul h1 par page, puis h2, puis soit h2 soit h3 etc), ce qui complique la compréhension du site et la navigation dans celui-ci.</t>
+  </si>
+  <si>
+    <t>Modifier les niveau des titres de notre pages pour qu'ils repectent la structure hiérarchique.</t>
+  </si>
+  <si>
+    <t>Les liens vers les réseaux sociaux ne contiennent aucun texte aditionnel.</t>
+  </si>
+  <si>
+    <t>Suivre la bonne structure hiérarchique de titres.</t>
+  </si>
+  <si>
+    <t>Chaque élément non textuel doit être accompagné d'un texte pour décrire son utilité.</t>
+  </si>
+  <si>
+    <t>Utiliser "alt" ou "title" lorsque cela est possible, sinon, utiliser les états de propriétés ARIA afin de rajouter ce texte descriptif.</t>
+  </si>
+  <si>
+    <t>Ajouter les descriptions pour les différents icones vers les réseaux sociaux.</t>
+  </si>
+  <si>
+    <t>Les images trop grandes et non compressées sont plus lourdes donc plus longues à charger, ce qui augmente le temps de chargement de la page. Ceci est mauvais pour l'utilisateur (augmentation du taux de rebond) et pour la crawlabilité (le moteur de recherche utilise plus de ressources et indexe donc moins de pages de notre site).</t>
+  </si>
+  <si>
+    <t>Les images du sites sont trop volumineuses.</t>
+  </si>
+  <si>
+    <t>Redimensionner et compresser les images afin de les alléger avant de les réintroduire sur le site.</t>
   </si>
 </sst>
 </file>
@@ -380,19 +581,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,153 +638,325 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -649,12 +1023,12 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
@@ -680,7 +1054,14 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1651,6 +2032,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\OpenClassrooms\P4_optimisez_un_site_web_existant_gerin_ludovic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68442E4E-86AF-458D-8C72-F066B10D5798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D142D9CB-63E3-4D37-AD8F-411F7E02CCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>Catégorie</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Privilégier du texte à une image contenant ce texte quand celà est possible.</t>
   </si>
   <si>
-    <t>Modifier le menu de navigation de la page 2 pour qu'il soit identique à celui de la page d'accueil.</t>
-  </si>
-  <si>
     <t>Ajouter un attribut "nofollow" à ces liens pour indiquer aux moteurs de recherche de ne pas les suivre.</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Il est préférable de recueillir les données de Google Analytics pour notre site afin de connaître le comportement des utilisateurs et analyser s'il y a des problèmes à corriger sur ce dernier.</t>
   </si>
   <si>
-    <t>Homogénéiser les menus de navigation sur les 2 pages</t>
-  </si>
-  <si>
     <t>Créer un lien Google Analytics vers notre site et l'ajouter dans le code.</t>
   </si>
   <si>
@@ -213,12 +207,6 @@
     <t>Certains textes sont écrits trop petits ou avec une police difficile à lire.</t>
   </si>
   <si>
-    <t>Les menus de navigation ne sont pas exactement les mêmes sur les 2 pages notament en version mobile.</t>
-  </si>
-  <si>
-    <t>Certaines parties du site doivent être identiques d'une pages à l'autre, que ce soit visuellement ou sur le fonctionnement pour que les utilisateurs ne se perdent pas et n'aient pas à réapprendre le fonctionnement du site à chaque nouvelle page visitée, sous peine d'augmenter le taux de rebond.</t>
-  </si>
-  <si>
     <t>Le site est développé, en grande majorité, uniquement avec des balises &lt;div&gt;.  En matière de SEO, plus le site sera développé avec un code "propre", c'est-à-dire qui utilise les bonnes balises HTML5 comme &lt;header&gt;, &lt;section&gt;, &lt;footer&gt;, etc, plus le moteur de recherche fera confiance au site, pourra interpreter le contenu de ce dernier et le référencera bien. Pour ce qui est de l'accessibilité, il est important d'avoir un site bien structuré afin de pouvoir y naviguer convenablement.</t>
   </si>
   <si>
@@ -280,6 +268,63 @@
   </si>
   <si>
     <t>Redimensionner et compresser les images afin de les alléger avant de les réintroduire sur le site.</t>
+  </si>
+  <si>
+    <t>Il y a plusieurs fois le même bouton et ainsi la même ancre vers la page 2.</t>
+  </si>
+  <si>
+    <t>Il est inutile de multiplier les liens ou ancres vers les mêmes pages car le moteur de recherche ne les prendra pas en compte et il risquerait même de considérer ceci comme une méthode "Black Hat".</t>
+  </si>
+  <si>
+    <t>Ne pas dupliquer de lien ou d'ancre sur la même page.</t>
+  </si>
+  <si>
+    <t>Cours OC, https://www.seomix.fr/ancres-multiples/</t>
+  </si>
+  <si>
+    <t>Enlever les ancres en double.</t>
+  </si>
+  <si>
+    <t>Cette balise n'est plus très utile puisque les moteurs de recherche détectent plutôt les mots clés dans les titres et le contenu des pages web. De plus les mots utilisés dans cette dernière ne correspondent pas forcément aux bons mots clés et certains sont répétés beaucou pde fois, ce qui est considéré comme du spam.</t>
+  </si>
+  <si>
+    <t>La section "head" contient une balise "keywords".</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser de balise "keywords" et intégrer directement les mots clés dans le contenu de nos pages.</t>
+  </si>
+  <si>
+    <t>Supprimer la balise du code.</t>
+  </si>
+  <si>
+    <t>SEO et accessiblité</t>
+  </si>
+  <si>
+    <t>L'URL de cette page se terminerait par page2.html. Il vaudrait mieux pour le SEO que la page s'appelle "contact.html" pour que le moteur de recherche référence correctement la page et que l'utilisateur sache de quoi traite celle-ci.</t>
+  </si>
+  <si>
+    <t>Nommer le fichier des pages correctement pour qu'elles correspondent à leur contenu.</t>
+  </si>
+  <si>
+    <t>Renommer la page2.html.</t>
+  </si>
+  <si>
+    <t>La page de contact s'appelle "page2.html"</t>
+  </si>
+  <si>
+    <t>https://www.dummies.com/article/technology/programming-web-design/general-programming-web-design/name-your-web-site-files-for-better-seo-results-189751/</t>
+  </si>
+  <si>
+    <t>L'aspect visuel des 2 pages n'étaient pas les mêmes.</t>
+  </si>
+  <si>
+    <t>Les pages d'un site doivent être faites de la même façon visuellement et fonctionnellement afin de faciliter l'expérience utilisateur et ainsi, réduire le taux de rebond.</t>
+  </si>
+  <si>
+    <t>Homogénéiser les pages du site visuellement et fonctionnellement.</t>
+  </si>
+  <si>
+    <t>Modifier la page 2 pour qu'elle soit plus en adéquation avec la page d'accueil.</t>
   </si>
 </sst>
 </file>
@@ -351,19 +396,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,7 +635,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -594,7 +645,7 @@
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="4" max="4" width="32.21875" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -639,428 +690,464 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
